--- a/02_엔티티정의서 (2 유형).xlsx
+++ b/02_엔티티정의서 (2 유형).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="12350" windowHeight="11460" tabRatio="961" activeTab="15"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25340" windowHeight="11490" tabRatio="961" activeTab="15"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="작성표준" sheetId="1" r:id="rId4"/>
@@ -73,557 +73,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="229">
-  <x:si>
-    <x:t>로그를 기록하는 이력 엔티티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사가 추천하는 보험 확인</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="231">
+  <x:si>
+    <x:t>(8) 속성명 : 엔티티를 구성하는 각 속성명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(9) TYPE : 문자형(Character), 수치형(Number), 날짜형(D)으로 구분하며 표현은 각 형태를 의미하는 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(7) 업무규칙 : 속성값에 대한 무결성과 일관성을 유지하기 위해 정의된 연쇄반응(Triggering Operations)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민건강보험공단에서 진행한 검진데이터를 원큐보험으로 가져오고, 이를 저장하는 DB</x:t>
   </x:si>
   <x:si>
     <x:t>보험상품과 마찬가지로, 상담 후 리뷰, 별점 부여 가능
 상위 별점이 보험 상담 화면 상단에 위치</x:t>
   </x:si>
   <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 연쇄반응을 발생시키는 작업(입력, 수정, 삭제, 조회), 작업의 대상, 작업조건, 연쇄반응의 결과로 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>TSH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(7) 업무규칙 : 속성값에 대한 무결성과 일관성을 유지하기 위해 정의된 연쇄반응(Triggering Operations)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(9) TYPE : 문자형(Character), 수치형(Number), 날짜형(D)으로 구분하며 표현은 각 형태를 의미하는 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>(10) 길이 : 각 속성의 길이를 바이트(Byte) 단위로 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">소기업 통합등급 산출시 사용, 등급 데이터  변경시 이력 데이터 생성 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">    - CASE Tool에서 제공 가능한 형태로 문서를 작성한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원검진의료데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품 목록들 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민건강보험공단에서 진행한 검진데이터를 원큐보험으로 가져오고, 이를 저장하는 DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>혈색소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찜하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진단서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PFK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수술확인서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수축기혈압</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납입금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이완기혈압</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DG02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입원사실증명서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험회사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허리둘레</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활성: 1, 비활성: 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ketone_urine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eGFR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음주여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IU/L 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DG01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mmHg단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초고위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정수영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1: 음주 0: 비음주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험설계사리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7대질환위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진료세부내역서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사추천보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WBCCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.07.31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) NULL : 속성의 Null 값을 허용할지 여부를 나타내며 다음과 같이 표현한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(1) 기능명 :  기능차트에서 도출된 1레벨의 기능명을 기재한다.(기능차트 작성표준 참조)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(5) 기능명 : 기능차트에서 도출된 1레벨의 기능명을 기재한다.(기능차트 작성표준 참조)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mg/dL, 검진자 식사 전 혈당(혈액 100ml당 함유 되어 있는 포도당의 농도) 수치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스 로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - ERD의 해당 엔티티에 속성명이 정의된 경우 동일한 속성명을 기재한다.</x:t>
+    <x:t>질병예측을 통해 추천받은 보험 / 설계사를 통해 추천받은 보험 / 보험목록에서 관심있는 보험상품을 찜하고, 장바구니에서 조회 가능</x:t>
   </x:si>
   <x:si>
     <x:t>당화혈색소가 아님, 헤모글로빈 수치를 일컫는 듯함
 g/dL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>혈청크레아티닌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 가입한 보험상품 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(12) 특성 : 각 속성의 편집형태, 허용되는 값의 범위 및 제약조건 등 속성을 이해하는데 필요한 정보를</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 주키, 외부키에 대한 구분은 반드시 기재하도록 한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>(8) 속성명 : 엔티티를 구성하는 각 속성명을 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                     의 내용을 기술한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>흡연상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TCA_결합등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  O 작성가이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템등급과 비재무평점등급의 Matrix결합에 의한 등급 엔티티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티정의서 작성 표준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티 별로 엔티티의 속성과 각 속성의 특성을 정의한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - NULL값 허용하지 않음 : "N"으로 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(6) 개요 : 엔티티에 대한 설명을 간략히 기술한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                 다음 표현을 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 문자형(Character) : "C"로 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적용일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속성명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강보험공단검진의료데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DG07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DG04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DG06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DG05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DG03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신용분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신용상호구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 작성방법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재무등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등급CAP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비재무등급10</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 기능차트에서 정의된 명칭과 동일해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - ERD에 정의된 엔티티명과 동일해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">     수행될 작업 등을 반드시 기술한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(4) 작성자 : 산출물 작성자명을 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(3) 작성일 : 산출물 작성일자를 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 수치형(Number) : "N"으로 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 날짜형(D) : "D"로 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(2) 엔티티명 : 엔티티명을 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - NULL값 허용 : "Y"로 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7대질병에 대한 위험군 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비활성 : 0, 활성 : 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Protein_urine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이오지갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서류보관함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납부계좌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소속회사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LDL콜레스테롤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mg/dL 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사용자가 가입한 본인의 보험상품에 대해 리뷰와 별점을 매기는 엔티티 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>요단백</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당뇨병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공복혈당</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총콜레스테롤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연령대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원큐 보험 사용자 관련 엔티티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스의 로그들을 기록하는 엔티티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">결측데이터의 경우 병원검진 의료데이터에서 보완 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>트리글리세라이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HDL콜레스테롤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검진데이터 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Neg or Pos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PH_urine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진료비영수증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험설계사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남성 1, 여성 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계 상담 리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계보험사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rGTP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER(3,1)으로 소수 첫째자리까지만 나타냄</x:t>
   </x:si>
   <x:si>
     <x:t>5세 단위로 나눠서 계산.
@@ -636,158 +108,682 @@
 2014년부터 0~4세 그룹이 존재</x:t>
   </x:si>
   <x:si>
-    <x:t>위십이지장궤양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심장질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플랫폼에 참여하는 인증완료 GA보험설계사 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mg/dL, 혈청 중의 에스텔형, 비에스테형(유리)콜레스테롤의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래진료확인서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만성호흡기질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 검진을 할 병원의 검진 의료데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고혈압</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER(2,1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 엔티티의 PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질병예측을 통해 추천받은 보험 / 설계사를 통해 추천받은 보험 / 보험목록에서 관심있는 보험상품을 찜하고, 장바구니에서 조회 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FreeT4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뇌혈관질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlateletCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품에 관란 리뷰</x:t>
-  </x:si>
-  <x:si>
     <x:t>보험설계사가 추천하는 보험상품
 자사, 타사 보험 모두 포함
 찜하기 버튼을 눌러 장바구니에 담을 수 있음</x:t>
   </x:si>
   <x:si>
+    <x:t>(12) 특성 : 각 속성의 편집형태, 허용되는 값의 범위 및 제약조건 등 속성을 이해하는데 필요한 정보를</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 주키, 외부키에 대한 구분은 반드시 기재하도록 한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 연쇄반응을 발생시키는 작업(입력, 수정, 삭제, 조회), 작업의 대상, 작업조건, 연쇄반응의 결과로 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>위험군별로 그룹을 나누고, 해당 그룹을 나타내는 코드를 보여주는 코드 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - ERD의 해당 엔티티에 속성명이 정의된 경우 동일한 속성명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납입금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DG02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수축기혈압</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험회사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이완기혈압</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수술확인서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입원사실증명서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음주여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eGFR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허리둘레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DG01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초고위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mmHg단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7대질환위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IU/L 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진료세부내역서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스 로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험설계사리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>혈청크레아티닌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흡연상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DG07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DG04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신용분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DG05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DG06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DG03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 작성방법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신용상호구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재무등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등급CAP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위십이지장궤양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심장질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래진료확인서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만성호흡기질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서류보관함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이오지갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공복혈당</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총콜레스테롤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비재무등급10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진료비영수증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계보험사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소속회사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납부계좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험설계사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rGTP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보장내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HbA1c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5kg단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FreeT4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일시</x:t>
+  </x:si>
+  <x:si>
     <x:t>주민번호</x:t>
   </x:si>
   <x:si>
-    <x:t>보장내용</x:t>
+    <x:t>5cm단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뇌혈관질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인증명서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SYSDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질환군코드</x:t>
   </x:si>
   <x:si>
     <x:t>보험사ID</x:t>
   </x:si>
   <x:si>
-    <x:t>5cm단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HbA1c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위험군별로 그룹을 나누고, 해당 그룹을 나타내는 코드를 보여주는 코드 엔티티</x:t>
+    <x:t>가입상품ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(1) 기능명 :  기능차트에서 도출된 1레벨의 기능명을 기재한다.(기능차트 작성표준 참조)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(11) NULL : 속성의 Null 값을 허용할지 여부를 나타내며 다음과 같이 표현한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(5) 기능명 : 기능차트에서 도출된 1레벨의 기능명을 기재한다.(기능차트 작성표준 참조)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mg/dL, 검진자 식사 전 혈당(혈액 100ml당 함유 되어 있는 포도당의 농도) 수치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LDL콜레스테롤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Neg or Pos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mg/dL 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDL콜레스테롤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PH_urine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검진데이터 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리글리세라이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원검진의료데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품 목록들 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WBCCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사추천보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.07.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TCA_결합등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  O 작성가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남성 1, 여성 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계 상담 리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 엔티티의 PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품에 관란 리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER(2,1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사용자가 가입한 본인의 보험상품에 대해 리뷰와 별점을 매기는 엔티티 </x:t>
   </x:si>
   <x:si>
     <x:t>mg/dL 단위, NUMBER(2,1)으로 소수 첫째자리까지만 나타냄</x:t>
   </x:si>
   <x:si>
-    <x:t>5kg단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인증명서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일시</x:t>
+    <x:t xml:space="preserve">소기업 통합등급 산출시 사용, 등급 데이터  변경시 이력 데이터 생성 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1: 피우지 않는다, 2: 이전에 피웠으나 끊었다, 3:현재도 피운다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(10) 길이 : 각 속성의 길이를 바이트(Byte) 단위로 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mg/dL, 혈청 중의 에스텔형, 비에스테형(유리)콜레스테롤의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    - CASE Tool에서 제공 가능한 형태로 문서를 작성한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 가입한 보험상품 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스의 로그들을 기록하는 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원큐 보험 사용자 관련 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템등급과 비재무평점등급의 Matrix결합에 의한 등급 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                     의 내용을 기술한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER(3,1)으로 소수 첫째자리까지만 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(6) 개요 : 엔티티에 대한 설명을 간략히 기술한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 문자형(Character) : "C"로 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - NULL값 허용하지 않음 : "N"으로 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                 다음 표현을 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티 별로 엔티티의 속성과 각 속성의 특성을 정의한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진단서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>혈색소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PFK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찜하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정수영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TSH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적용일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요단백</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연령대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고혈압</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소견서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당뇨병</x:t>
+  </x:si>
+  <x:si>
+    <x:t>속성명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납부일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천보험상품ID</x:t>
   </x:si>
   <x:si>
     <x:t>NUMBER(3,1)</x:t>
   </x:si>
   <x:si>
+    <x:t>설계사가 추천하는 보험 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그를 기록하는 이력 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ketone_urine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활성: 1, 비활성: 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티정의서 작성 표준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강보험공단검진의료데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Protein_urine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비활성 : 0, 활성 : 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7대질병에 대한 위험군 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlateletCount</x:t>
+  </x:si>
+  <x:si>
     <x:t>제휴병원 엔티티의 PK</x:t>
   </x:si>
   <x:si>
-    <x:t>소견서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납부일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질환군코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입상품ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SYSDATE</x:t>
+    <x:t>1: 음주 0: 비음주</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 수치형(Number) : "N"으로 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 기능차트에서 정의된 명칭과 동일해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(4) 작성자 : 산출물 작성자명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(3) 작성일 : 산출물 작성일자를 기재한다.</x:t>
   </x:si>
   <x:si>
     <x:t>병원에서 받은 제증명 서류들을 보관하는 엔티티</x:t>
   </x:si>
   <x:si>
-    <x:t>1: 피우지 않는다, 2: 이전에 피웠으나 끊었다, 3:현재도 피운다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천보험상품ID</x:t>
+    <x:t>플랫폼에 참여하는 인증완료 GA보험설계사 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     수행될 작업 등을 반드시 기술한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">결측데이터의 경우 병원검진 의료데이터에서 보완 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - ERD에 정의된 엔티티명과 동일해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 날짜형(D) : "D"로 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(2) 엔티티명 : 엔티티명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 검진을 할 병원의 검진 의료데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - NULL값 허용 : "Y"로 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원큐보험을 관리하는 관리자 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회, 상품 추가, 설계사 관리말고는 딱히...하는일이 없는 관리자</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="8">
-    <x:numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <x:numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="166" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <x:numFmt numFmtId="167" formatCode="&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\$#,##0.00_);&quot;₩&quot;&quot;₩&quot;\(&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\$#,##0.00&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\)"/>
-    <x:numFmt numFmtId="168" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <x:numFmt numFmtId="169" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0"/>
-    <x:numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <x:numFmt numFmtId="171" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
-  </x:numFmts>
-  <x:fonts count="27">
+  <x:fonts count="18">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -818,138 +814,6 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="바탕체"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="MS Sans Serif"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Helv"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Helv"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Helv"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="MS Sans Serif"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineType val="1"/>
-          <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="MS Sans Serif"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Helv"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Helv"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1440,6 +1304,48 @@
       <x:right>
         <x:color indexed="64"/>
       </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
       <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
@@ -1451,6 +1357,20 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
       <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
@@ -1490,10 +1410,10 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
@@ -1507,13 +1427,13 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1521,7 +1441,7 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
@@ -1535,10 +1455,10 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="medium">
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -1552,7 +1472,7 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -1563,27 +1483,13 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="medium">
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1595,48 +1501,6 @@
         <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
@@ -1653,389 +1517,389 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="14" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2712,7 +2576,7 @@
     </x:row>
     <x:row r="2" spans="1:1" ht="30" customHeight="1">
       <x:c r="A2" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="13.5" customHeight="1">
@@ -2720,12 +2584,12 @@
     </x:row>
     <x:row r="4" spans="1:1" s="21" customFormat="1" ht="22.5">
       <x:c r="A4" s="22" t="s">
-        <x:v>114</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A5" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="18.75" customHeight="1">
@@ -2733,148 +2597,148 @@
     </x:row>
     <x:row r="7" spans="1:1" s="21" customFormat="1" ht="22.5">
       <x:c r="A7" s="20" t="s">
-        <x:v>112</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="31" t="s">
-        <x:v>51</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>120</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A12" s="6" t="s">
-        <x:v>122</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A13" s="31" t="s">
-        <x:v>52</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A14" s="31" t="s">
-        <x:v>119</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A15" s="32" t="s">
-        <x:v>74</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A16" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A17" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A18" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A19" s="6" t="s">
-        <x:v>121</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A20" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A21" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A22" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A23" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A24" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A25" s="6" t="s">
-        <x:v>124</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A26" s="6" t="s">
-        <x:v>126</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A27" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A28" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A29" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A30" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A31" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A32" s="6" t="s">
-        <x:v>125</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A33" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="34" ht="18.75" customHeight="1"/>
     <x:row r="35" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A35" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A36" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:1" ht="18.75" customHeight="1">
@@ -2883,7 +2747,7 @@
     <x:row r="38" ht="18.75" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <x:pageMargins left="0.78736108541488647" right="0.78736108541488647" top="0.77999997138977051" bottom="0.79000002145767212" header="0.39361110329627991" footer="0.39361110329627991"/>
+  <x:pageMargins left="0.78722220659255981" right="0.78722220659255981" top="0.77986109256744385" bottom="0.79000002145767212" header="0.39347222447395325" footer="0.39347222447395325"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;G</x:oddFooter>
@@ -2913,104 +2777,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -3018,19 +2882,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -3039,19 +2903,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>207</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -3060,18 +2924,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>226</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -3079,18 +2943,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>206</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -3098,18 +2962,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -3118,7 +2982,7 @@
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="8"/>
       <x:c r="E13" s="8"/>
-      <x:c r="F13" s="51"/>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -3127,7 +2991,7 @@
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="8"/>
       <x:c r="E14" s="8"/>
-      <x:c r="F14" s="51"/>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -3136,7 +3000,7 @@
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="8"/>
       <x:c r="E15" s="8"/>
-      <x:c r="F15" s="51"/>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -3145,7 +3009,7 @@
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="8"/>
       <x:c r="E16" s="8"/>
-      <x:c r="F16" s="51"/>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -3154,7 +3018,7 @@
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="8"/>
       <x:c r="E17" s="8"/>
-      <x:c r="F17" s="51"/>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -3163,7 +3027,7 @@
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
       <x:c r="E18" s="8"/>
-      <x:c r="F18" s="51"/>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -3172,7 +3036,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -3181,7 +3045,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -3190,7 +3054,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -3199,7 +3063,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -3208,7 +3072,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -3217,7 +3081,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -3226,7 +3090,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -3235,7 +3099,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -3244,7 +3108,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -3253,7 +3117,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -3262,7 +3126,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -3271,7 +3135,7 @@
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -3280,7 +3144,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -3289,7 +3153,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -3298,7 +3162,7 @@
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="18"/>
       <x:c r="E33" s="18"/>
-      <x:c r="F33" s="52"/>
+      <x:c r="F33" s="35"/>
       <x:c r="G33" s="14"/>
     </x:row>
   </x:sheetData>
@@ -3312,7 +3176,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -3343,104 +3207,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -3448,19 +3312,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>166</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -3469,18 +3333,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
@@ -3488,18 +3352,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>140</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -3507,18 +3371,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>227</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -3526,18 +3390,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -3545,20 +3409,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>197</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F13" s="11"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>130</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -3567,7 +3431,7 @@
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="8"/>
       <x:c r="E14" s="8"/>
-      <x:c r="F14" s="51"/>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -3576,7 +3440,7 @@
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="8"/>
       <x:c r="E15" s="8"/>
-      <x:c r="F15" s="51"/>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -3585,7 +3449,7 @@
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="8"/>
       <x:c r="E16" s="8"/>
-      <x:c r="F16" s="51"/>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -3594,7 +3458,7 @@
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="8"/>
       <x:c r="E17" s="8"/>
-      <x:c r="F17" s="51"/>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -3603,7 +3467,7 @@
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
       <x:c r="E18" s="8"/>
-      <x:c r="F18" s="51"/>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -3612,7 +3476,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -3621,7 +3485,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -3630,7 +3494,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -3639,7 +3503,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -3648,7 +3512,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -3657,7 +3521,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -3666,7 +3530,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -3675,7 +3539,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -3684,7 +3548,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -3693,7 +3557,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -3702,7 +3566,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -3711,7 +3575,7 @@
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -3720,7 +3584,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -3729,7 +3593,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -3738,7 +3602,7 @@
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="18"/>
       <x:c r="E33" s="18"/>
-      <x:c r="F33" s="52"/>
+      <x:c r="F33" s="35"/>
       <x:c r="G33" s="14"/>
     </x:row>
   </x:sheetData>
@@ -3752,7 +3616,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -3780,95 +3644,95 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>85</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -3876,16 +3740,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F8" s="11"/>
     </x:row>
@@ -3894,16 +3758,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>166</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F9" s="11"/>
     </x:row>
@@ -3912,10 +3776,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>226</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
@@ -3928,10 +3792,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>206</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
@@ -3944,10 +3808,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>10</x:v>
@@ -4134,7 +3998,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -4165,104 +4029,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
+      <x:c r="D3" s="27" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="C3" s="43"/>
-      <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -4270,19 +4134,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>166</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -4291,19 +4155,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -4312,20 +4176,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>160</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -4333,18 +4197,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>171</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -4352,18 +4216,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>225</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>222</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -4371,18 +4235,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>215</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>222</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F13" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -4391,7 +4255,7 @@
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="8"/>
       <x:c r="E14" s="8"/>
-      <x:c r="F14" s="51"/>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -4400,7 +4264,7 @@
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="8"/>
       <x:c r="E15" s="8"/>
-      <x:c r="F15" s="51"/>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -4409,7 +4273,7 @@
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="8"/>
       <x:c r="E16" s="8"/>
-      <x:c r="F16" s="51"/>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -4418,7 +4282,7 @@
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="8"/>
       <x:c r="E17" s="8"/>
-      <x:c r="F17" s="51"/>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -4427,7 +4291,7 @@
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
       <x:c r="E18" s="8"/>
-      <x:c r="F18" s="51"/>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -4436,7 +4300,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -4445,7 +4309,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -4454,7 +4318,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -4463,7 +4327,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -4472,7 +4336,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -4481,7 +4345,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -4490,7 +4354,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -4499,7 +4363,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -4508,7 +4372,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -4517,7 +4381,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -4526,7 +4390,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -4535,7 +4399,7 @@
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -4544,7 +4408,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -4553,7 +4417,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -4562,7 +4426,7 @@
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="18"/>
       <x:c r="E33" s="18"/>
-      <x:c r="F33" s="52"/>
+      <x:c r="F33" s="35"/>
       <x:c r="G33" s="14"/>
     </x:row>
   </x:sheetData>
@@ -4576,7 +4440,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -4606,104 +4470,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -4711,19 +4575,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>144</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -4732,18 +4596,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>181</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>192</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F9" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
@@ -4751,18 +4615,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>192</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -4770,18 +4634,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>197</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -4790,7 +4654,7 @@
       <x:c r="C12" s="8"/>
       <x:c r="D12" s="8"/>
       <x:c r="E12" s="8"/>
-      <x:c r="F12" s="51"/>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -4799,7 +4663,7 @@
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="8"/>
       <x:c r="E13" s="8"/>
-      <x:c r="F13" s="51"/>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -4808,7 +4672,7 @@
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="8"/>
       <x:c r="E14" s="8"/>
-      <x:c r="F14" s="51"/>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -4817,7 +4681,7 @@
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="8"/>
       <x:c r="E15" s="8"/>
-      <x:c r="F15" s="51"/>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -4826,7 +4690,7 @@
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="8"/>
       <x:c r="E16" s="8"/>
-      <x:c r="F16" s="51"/>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -4835,7 +4699,7 @@
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="8"/>
       <x:c r="E17" s="8"/>
-      <x:c r="F17" s="51"/>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -4844,7 +4708,7 @@
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
       <x:c r="E18" s="8"/>
-      <x:c r="F18" s="51"/>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -4853,7 +4717,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -4862,7 +4726,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -4871,7 +4735,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -4880,7 +4744,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -4889,7 +4753,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -4898,7 +4762,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -4907,7 +4771,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -4916,7 +4780,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -4925,7 +4789,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -4934,7 +4798,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -4943,7 +4807,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -4952,7 +4816,7 @@
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -4961,7 +4825,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -4970,7 +4834,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -4979,7 +4843,7 @@
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="18"/>
       <x:c r="E33" s="18"/>
-      <x:c r="F33" s="52"/>
+      <x:c r="F33" s="35"/>
       <x:c r="G33" s="14"/>
     </x:row>
   </x:sheetData>
@@ -4993,7 +4857,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -5023,256 +4887,256 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
       <x:c r="A8" s="12"/>
       <x:c r="B8" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="21" customHeight="1">
       <x:c r="A9" s="12"/>
       <x:c r="B9" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34"/>
       <x:c r="G9" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
       <x:c r="A10" s="12"/>
       <x:c r="B10" s="9" t="s">
-        <x:v>185</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
       <x:c r="A11" s="12"/>
       <x:c r="B11" s="9" t="s">
-        <x:v>194</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11" t="s">
-        <x:v>97</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
       <x:c r="A12" s="12"/>
       <x:c r="B12" s="9" t="s">
-        <x:v>151</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11" t="s">
-        <x:v>94</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
       <x:c r="A13" s="12"/>
       <x:c r="B13" s="10" t="s">
-        <x:v>184</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F13" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
       <x:c r="A14" s="12"/>
       <x:c r="B14" s="10" t="s">
-        <x:v>190</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F14" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11" t="s">
-        <x:v>95</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
       <x:c r="A15" s="12"/>
       <x:c r="B15" s="10" t="s">
-        <x:v>186</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F15" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -5281,7 +5145,7 @@
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="8"/>
       <x:c r="E16" s="8"/>
-      <x:c r="F16" s="51"/>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -5290,7 +5154,7 @@
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="8"/>
       <x:c r="E17" s="8"/>
-      <x:c r="F17" s="51"/>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -5299,7 +5163,7 @@
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
       <x:c r="E18" s="8"/>
-      <x:c r="F18" s="51"/>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -5308,7 +5172,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -5317,7 +5181,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -5326,7 +5190,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -5335,7 +5199,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -5344,7 +5208,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -5353,7 +5217,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -5362,7 +5226,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -5371,7 +5235,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -5380,7 +5244,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -5389,7 +5253,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -5398,7 +5262,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -5407,7 +5271,7 @@
       <x:c r="C30" s="8"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -5416,7 +5280,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -5425,7 +5289,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -5434,7 +5298,7 @@
       <x:c r="C33" s="10"/>
       <x:c r="D33" s="8"/>
       <x:c r="E33" s="8"/>
-      <x:c r="F33" s="51"/>
+      <x:c r="F33" s="34"/>
       <x:c r="G33" s="11"/>
     </x:row>
     <x:row r="34" spans="1:7" ht="21" customHeight="1">
@@ -5443,7 +5307,7 @@
       <x:c r="C34" s="17"/>
       <x:c r="D34" s="18"/>
       <x:c r="E34" s="18"/>
-      <x:c r="F34" s="52"/>
+      <x:c r="F34" s="35"/>
       <x:c r="G34" s="14"/>
     </x:row>
   </x:sheetData>
@@ -5457,7 +5321,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -5472,7 +5336,7 @@
   <x:dimension ref="A1:G33"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B18" activeCellId="0" sqref="B18:B18"/>
+      <x:selection activeCell="B6" activeCellId="0" sqref="B6:G6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -5487,172 +5351,174 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42"/>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
       <x:c r="A8" s="12"/>
       <x:c r="B8" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="21" customHeight="1">
       <x:c r="A9" s="12"/>
       <x:c r="B9" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
       <x:c r="A10" s="12"/>
       <x:c r="B10" s="9" t="s">
-        <x:v>191</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
       <x:c r="A11" s="12"/>
       <x:c r="B11" s="9" t="s">
-        <x:v>165</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -5661,7 +5527,7 @@
       <x:c r="C12" s="8"/>
       <x:c r="D12" s="8"/>
       <x:c r="E12" s="8"/>
-      <x:c r="F12" s="51"/>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -5670,7 +5536,7 @@
       <x:c r="C13" s="8"/>
       <x:c r="D13" s="8"/>
       <x:c r="E13" s="8"/>
-      <x:c r="F13" s="51"/>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -5679,7 +5545,7 @@
       <x:c r="C14" s="8"/>
       <x:c r="D14" s="8"/>
       <x:c r="E14" s="8"/>
-      <x:c r="F14" s="51"/>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -5688,7 +5554,7 @@
       <x:c r="C15" s="8"/>
       <x:c r="D15" s="8"/>
       <x:c r="E15" s="8"/>
-      <x:c r="F15" s="51"/>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -5697,7 +5563,7 @@
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="8"/>
       <x:c r="E16" s="8"/>
-      <x:c r="F16" s="51"/>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -5706,7 +5572,7 @@
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="8"/>
       <x:c r="E17" s="8"/>
-      <x:c r="F17" s="51"/>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -5715,7 +5581,7 @@
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
       <x:c r="E18" s="8"/>
-      <x:c r="F18" s="51"/>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -5724,7 +5590,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -5733,7 +5599,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -5742,7 +5608,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -5751,7 +5617,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -5760,7 +5626,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -5769,7 +5635,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -5778,7 +5644,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -5787,7 +5653,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -5796,7 +5662,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -5805,7 +5671,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -5814,7 +5680,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -5823,7 +5689,7 @@
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -5832,7 +5698,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -5841,7 +5707,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -5850,7 +5716,7 @@
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="18"/>
       <x:c r="E33" s="18"/>
-      <x:c r="F33" s="52"/>
+      <x:c r="F33" s="35"/>
       <x:c r="G33" s="14"/>
     </x:row>
   </x:sheetData>
@@ -5864,7 +5730,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -5892,97 +5758,97 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>85</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -5990,19 +5856,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" ht="21" customHeight="1">
@@ -6010,19 +5876,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" ht="21" customHeight="1">
@@ -6030,19 +5896,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" ht="21" customHeight="1">
@@ -6050,10 +5916,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3</x:v>
@@ -6066,10 +5932,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>107</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>3</x:v>
@@ -6082,10 +5948,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>113</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>3</x:v>
@@ -6098,10 +5964,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>3</x:v>
@@ -6114,10 +5980,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>3</x:v>
@@ -6130,10 +5996,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>110</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>3</x:v>
@@ -6146,10 +6012,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>3</x:v>
@@ -6162,10 +6028,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>3</x:v>
@@ -6178,10 +6044,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D19" s="8">
         <x:v>3</x:v>
@@ -6194,10 +6060,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B20" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D20" s="8">
         <x:v>3</x:v>
@@ -6210,10 +6076,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B21" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D21" s="8">
         <x:v>3</x:v>
@@ -6328,7 +6194,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -6342,7 +6208,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:G29"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="C8" activeCellId="0" sqref="C8:C8"/>
     </x:sheetView>
   </x:sheetViews>
@@ -6359,106 +6225,106 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -6466,22 +6332,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>196</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="107.55">
@@ -6489,20 +6355,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>157</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34"/>
       <x:c r="G9" s="11" t="s">
-        <x:v>183</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
@@ -6510,20 +6376,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>158</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>176</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -6531,20 +6397,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>156</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11" t="s">
-        <x:v>208</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -6552,20 +6418,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11" t="s">
-        <x:v>213</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -6573,20 +6439,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F13" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>182</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -6594,20 +6460,20 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F14" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -6615,20 +6481,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F15" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
@@ -6636,20 +6502,20 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F16" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -6657,20 +6523,20 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F17" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11" t="s">
-        <x:v>188</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -6678,20 +6544,20 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>168</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F18" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11" t="s">
-        <x:v>148</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -6699,20 +6565,20 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>169</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D19" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E19" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F19" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11" t="s">
-        <x:v>148</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -6720,20 +6586,20 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B20" s="10" t="s">
-        <x:v>147</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D20" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E20" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F20" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11" t="s">
-        <x:v>148</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="23.899999999999999">
@@ -6741,20 +6607,20 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B21" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D21" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F21" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -6762,18 +6628,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B22" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D22" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E22" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F22" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -6781,20 +6647,20 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B23" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C23" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D23" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E23" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F23" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11" t="s">
-        <x:v>212</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -6802,20 +6668,20 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B24" s="10" t="s">
-        <x:v>164</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C24" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D24" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E24" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F24" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -6823,20 +6689,20 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B25" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C25" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D25" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E25" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F25" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -6844,20 +6710,20 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B26" s="10" t="s">
-        <x:v>180</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C26" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D26" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E26" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F26" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -6865,20 +6731,20 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B27" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C27" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D27" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F27" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11" t="s">
-        <x:v>224</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -6886,20 +6752,20 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B28" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C28" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D28" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E28" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F28" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -6908,7 +6774,7 @@
       <x:c r="C29" s="17"/>
       <x:c r="D29" s="18"/>
       <x:c r="E29" s="18"/>
-      <x:c r="F29" s="52"/>
+      <x:c r="F29" s="35"/>
       <x:c r="G29" s="14"/>
     </x:row>
   </x:sheetData>
@@ -6922,7 +6788,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -6953,104 +6819,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -7058,22 +6924,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>196</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="21" customHeight="1">
@@ -7081,22 +6947,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>153</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>217</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
@@ -7104,20 +6970,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>209</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -7125,20 +6991,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11" t="s">
-        <x:v>216</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -7146,18 +7012,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>202</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -7165,18 +7031,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F13" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -7184,20 +7050,20 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>200</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F14" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -7205,20 +7071,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F15" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -7226,20 +7092,20 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F16" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -7247,20 +7113,20 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F17" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11" t="s">
-        <x:v>172</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -7268,20 +7134,20 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F18" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -7289,20 +7155,20 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D19" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E19" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F19" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11" t="s">
-        <x:v>172</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -7311,7 +7177,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -7320,7 +7186,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -7329,7 +7195,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -7338,7 +7204,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -7347,7 +7213,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -7356,7 +7222,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -7365,7 +7231,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -7374,7 +7240,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -7383,7 +7249,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -7392,7 +7258,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -7401,7 +7267,7 @@
       <x:c r="C30" s="8"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -7410,7 +7276,7 @@
       <x:c r="C31" s="8"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -7419,7 +7285,7 @@
       <x:c r="C32" s="8"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -7428,7 +7294,7 @@
       <x:c r="C33" s="10"/>
       <x:c r="D33" s="8"/>
       <x:c r="E33" s="8"/>
-      <x:c r="F33" s="51"/>
+      <x:c r="F33" s="34"/>
       <x:c r="G33" s="11"/>
     </x:row>
     <x:row r="34" spans="1:7" ht="21" customHeight="1">
@@ -7437,7 +7303,7 @@
       <x:c r="C34" s="10"/>
       <x:c r="D34" s="8"/>
       <x:c r="E34" s="8"/>
-      <x:c r="F34" s="51"/>
+      <x:c r="F34" s="34"/>
       <x:c r="G34" s="11"/>
     </x:row>
     <x:row r="35" spans="1:7" ht="21" customHeight="1">
@@ -7446,7 +7312,7 @@
       <x:c r="C35" s="10"/>
       <x:c r="D35" s="8"/>
       <x:c r="E35" s="8"/>
-      <x:c r="F35" s="51"/>
+      <x:c r="F35" s="34"/>
       <x:c r="G35" s="11"/>
     </x:row>
     <x:row r="36" spans="1:7" ht="21" customHeight="1">
@@ -7455,7 +7321,7 @@
       <x:c r="C36" s="17"/>
       <x:c r="D36" s="18"/>
       <x:c r="E36" s="18"/>
-      <x:c r="F36" s="52"/>
+      <x:c r="F36" s="35"/>
       <x:c r="G36" s="14"/>
     </x:row>
   </x:sheetData>
@@ -7469,7 +7335,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -7500,104 +7366,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+      <x:c r="B5" s="36" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -7605,19 +7471,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>88</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -7626,18 +7492,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
@@ -7645,18 +7511,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>227</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -7664,18 +7530,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -7683,18 +7549,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>205</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -7702,20 +7568,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>197</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F13" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -7723,18 +7589,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F14" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -7742,18 +7608,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>142</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F15" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -7761,18 +7627,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>145</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F16" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -7780,18 +7646,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F17" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -7799,18 +7665,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F18" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -7819,7 +7685,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -7828,7 +7694,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -7837,7 +7703,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -7846,7 +7712,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -7855,7 +7721,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -7864,7 +7730,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -7873,7 +7739,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -7882,7 +7748,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -7891,7 +7757,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -7900,7 +7766,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -7909,7 +7775,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -7918,7 +7784,7 @@
       <x:c r="C30" s="8"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -7927,7 +7793,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -7936,7 +7802,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -7945,7 +7811,7 @@
       <x:c r="C33" s="10"/>
       <x:c r="D33" s="8"/>
       <x:c r="E33" s="8"/>
-      <x:c r="F33" s="51"/>
+      <x:c r="F33" s="34"/>
       <x:c r="G33" s="11"/>
     </x:row>
     <x:row r="34" spans="1:7" ht="21" customHeight="1">
@@ -7954,7 +7820,7 @@
       <x:c r="C34" s="17"/>
       <x:c r="D34" s="18"/>
       <x:c r="E34" s="18"/>
-      <x:c r="F34" s="52"/>
+      <x:c r="F34" s="35"/>
       <x:c r="G34" s="14"/>
     </x:row>
   </x:sheetData>
@@ -7968,7 +7834,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -7996,95 +7862,95 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>85</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -8092,19 +7958,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>221</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F8" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" ht="21" customHeight="1">
@@ -8112,19 +7978,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F9" s="11" t="s">
-        <x:v>163</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" ht="21" customHeight="1">
@@ -8132,16 +7998,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>226</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
     </x:row>
@@ -8150,16 +8016,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>206</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F11" s="11"/>
     </x:row>
@@ -8168,16 +8034,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F12" s="11"/>
     </x:row>
@@ -8186,16 +8052,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F13" s="11"/>
     </x:row>
@@ -8204,16 +8070,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F14" s="11"/>
     </x:row>
@@ -8222,16 +8088,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>219</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>222</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F15" s="11"/>
     </x:row>
@@ -8390,7 +8256,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -8418,95 +8284,95 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>85</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -8514,16 +8380,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>141</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F8" s="11"/>
     </x:row>
@@ -8532,16 +8398,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F9" s="11"/>
     </x:row>
@@ -8550,16 +8416,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
     </x:row>
@@ -8568,16 +8434,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F11" s="11"/>
     </x:row>
@@ -8586,16 +8452,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>166</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F12" s="11"/>
     </x:row>
@@ -8604,16 +8470,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>207</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F13" s="11"/>
     </x:row>
@@ -8788,7 +8654,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -8818,104 +8684,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -8923,19 +8789,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -8944,19 +8810,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>153</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -8965,19 +8831,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>207</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G10" s="11"/>
     </x:row>
@@ -8986,18 +8852,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F11" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -9005,18 +8871,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -9024,18 +8890,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F13" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -9043,18 +8909,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>218</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F14" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -9062,18 +8928,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F15" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -9081,18 +8947,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>214</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F16" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -9100,18 +8966,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>174</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F17" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -9119,18 +8985,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F18" s="51"/>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -9139,7 +9005,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -9148,7 +9014,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -9157,7 +9023,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -9166,7 +9032,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -9175,7 +9041,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -9184,7 +9050,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -9193,7 +9059,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -9202,7 +9068,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -9211,7 +9077,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -9220,7 +9086,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -9229,7 +9095,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -9238,7 +9104,7 @@
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -9247,7 +9113,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -9256,7 +9122,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -9265,7 +9131,7 @@
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="18"/>
       <x:c r="E33" s="18"/>
-      <x:c r="F33" s="52"/>
+      <x:c r="F33" s="35"/>
       <x:c r="G33" s="14"/>
     </x:row>
   </x:sheetData>
@@ -9279,7 +9145,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -9310,104 +9176,104 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
-      <x:c r="A1" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="38"/>
-      <x:c r="C1" s="38"/>
-      <x:c r="D1" s="38"/>
-      <x:c r="E1" s="38"/>
-      <x:c r="F1" s="46"/>
-      <x:c r="G1" s="39"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="7.5" customHeight="1">
-      <x:c r="A2" s="45"/>
-      <x:c r="B2" s="45"/>
-      <x:c r="C2" s="45"/>
-      <x:c r="D2" s="45"/>
-      <x:c r="E2" s="45"/>
-      <x:c r="F2" s="45"/>
-      <x:c r="G2" s="45"/>
+      <x:c r="A2" s="52"/>
+      <x:c r="B2" s="52"/>
+      <x:c r="C2" s="52"/>
+      <x:c r="D2" s="52"/>
+      <x:c r="E2" s="52"/>
+      <x:c r="F2" s="52"/>
+      <x:c r="G2" s="52"/>
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="42" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="C3" s="43"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B3" s="49" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E3" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F3" s="47"/>
-      <x:c r="G3" s="36"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E3" s="39" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B4" s="40" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C4" s="44"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B4" s="46" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E4" s="40" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F4" s="48"/>
-      <x:c r="G4" s="41"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E4" s="46" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F4" s="47"/>
+      <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B5" s="33" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="C5" s="33"/>
-      <x:c r="D5" s="33"/>
-      <x:c r="E5" s="33"/>
-      <x:c r="F5" s="49"/>
-      <x:c r="G5" s="34"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C5" s="36"/>
+      <x:c r="D5" s="36"/>
+      <x:c r="E5" s="36"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="33"/>
-      <x:c r="D6" s="33"/>
-      <x:c r="E6" s="33"/>
-      <x:c r="F6" s="49"/>
-      <x:c r="G6" s="34"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="36"/>
+      <x:c r="C6" s="36"/>
+      <x:c r="D6" s="36"/>
+      <x:c r="E6" s="36"/>
+      <x:c r="F6" s="37"/>
+      <x:c r="G6" s="38"/>
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
-        <x:v>89</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F7" s="50" t="s">
-        <x:v>85</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="33" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -9415,19 +9281,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F8" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F8" s="34" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -9436,19 +9302,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>207</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="51" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F9" s="34" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -9457,19 +9323,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F10" s="51" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F10" s="34" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G10" s="11"/>
     </x:row>
@@ -9478,19 +9344,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>221</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="51" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F11" s="34" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G11" s="11"/>
     </x:row>
@@ -9499,20 +9365,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F12" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F12" s="34"/>
       <x:c r="G12" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -9520,18 +9386,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>171</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F13" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -9539,18 +9405,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>225</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>222</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F14" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -9558,18 +9424,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>215</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>222</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F15" s="51"/>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -9578,7 +9444,7 @@
       <x:c r="C16" s="8"/>
       <x:c r="D16" s="8"/>
       <x:c r="E16" s="8"/>
-      <x:c r="F16" s="51"/>
+      <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -9587,7 +9453,7 @@
       <x:c r="C17" s="8"/>
       <x:c r="D17" s="8"/>
       <x:c r="E17" s="8"/>
-      <x:c r="F17" s="51"/>
+      <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -9596,7 +9462,7 @@
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
       <x:c r="E18" s="8"/>
-      <x:c r="F18" s="51"/>
+      <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -9605,7 +9471,7 @@
       <x:c r="C19" s="8"/>
       <x:c r="D19" s="8"/>
       <x:c r="E19" s="8"/>
-      <x:c r="F19" s="51"/>
+      <x:c r="F19" s="34"/>
       <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -9614,7 +9480,7 @@
       <x:c r="C20" s="8"/>
       <x:c r="D20" s="8"/>
       <x:c r="E20" s="8"/>
-      <x:c r="F20" s="51"/>
+      <x:c r="F20" s="34"/>
       <x:c r="G20" s="11"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="21" customHeight="1">
@@ -9623,7 +9489,7 @@
       <x:c r="C21" s="8"/>
       <x:c r="D21" s="8"/>
       <x:c r="E21" s="8"/>
-      <x:c r="F21" s="51"/>
+      <x:c r="F21" s="34"/>
       <x:c r="G21" s="11"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="21" customHeight="1">
@@ -9632,7 +9498,7 @@
       <x:c r="C22" s="8"/>
       <x:c r="D22" s="8"/>
       <x:c r="E22" s="8"/>
-      <x:c r="F22" s="51"/>
+      <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="21" customHeight="1">
@@ -9641,7 +9507,7 @@
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
       <x:c r="E23" s="8"/>
-      <x:c r="F23" s="51"/>
+      <x:c r="F23" s="34"/>
       <x:c r="G23" s="11"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -9650,7 +9516,7 @@
       <x:c r="C24" s="8"/>
       <x:c r="D24" s="8"/>
       <x:c r="E24" s="8"/>
-      <x:c r="F24" s="51"/>
+      <x:c r="F24" s="34"/>
       <x:c r="G24" s="11"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -9659,7 +9525,7 @@
       <x:c r="C25" s="8"/>
       <x:c r="D25" s="8"/>
       <x:c r="E25" s="8"/>
-      <x:c r="F25" s="51"/>
+      <x:c r="F25" s="34"/>
       <x:c r="G25" s="11"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -9668,7 +9534,7 @@
       <x:c r="C26" s="8"/>
       <x:c r="D26" s="8"/>
       <x:c r="E26" s="8"/>
-      <x:c r="F26" s="51"/>
+      <x:c r="F26" s="34"/>
       <x:c r="G26" s="11"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -9677,7 +9543,7 @@
       <x:c r="C27" s="8"/>
       <x:c r="D27" s="8"/>
       <x:c r="E27" s="8"/>
-      <x:c r="F27" s="51"/>
+      <x:c r="F27" s="34"/>
       <x:c r="G27" s="11"/>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -9686,7 +9552,7 @@
       <x:c r="C28" s="8"/>
       <x:c r="D28" s="8"/>
       <x:c r="E28" s="8"/>
-      <x:c r="F28" s="51"/>
+      <x:c r="F28" s="34"/>
       <x:c r="G28" s="11"/>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -9695,7 +9561,7 @@
       <x:c r="C29" s="8"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
-      <x:c r="F29" s="51"/>
+      <x:c r="F29" s="34"/>
       <x:c r="G29" s="11"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="21" customHeight="1">
@@ -9704,7 +9570,7 @@
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
-      <x:c r="F30" s="51"/>
+      <x:c r="F30" s="34"/>
       <x:c r="G30" s="11"/>
     </x:row>
     <x:row r="31" spans="1:7" ht="21" customHeight="1">
@@ -9713,7 +9579,7 @@
       <x:c r="C31" s="10"/>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
-      <x:c r="F31" s="51"/>
+      <x:c r="F31" s="34"/>
       <x:c r="G31" s="11"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="21" customHeight="1">
@@ -9722,7 +9588,7 @@
       <x:c r="C32" s="10"/>
       <x:c r="D32" s="8"/>
       <x:c r="E32" s="8"/>
-      <x:c r="F32" s="51"/>
+      <x:c r="F32" s="34"/>
       <x:c r="G32" s="11"/>
     </x:row>
     <x:row r="33" spans="1:7" ht="21" customHeight="1">
@@ -9731,7 +9597,7 @@
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="18"/>
       <x:c r="E33" s="18"/>
-      <x:c r="F33" s="52"/>
+      <x:c r="F33" s="35"/>
       <x:c r="G33" s="14"/>
     </x:row>
   </x:sheetData>
@@ -9745,7 +9611,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="A2:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77999997138977051" bottom="0.79000002145767212" header="0.38999998569488525" footer="0.40000000596046448"/>
+  <x:pageMargins left="0.79000002145767212" right="0.80000001192092896" top="0.77986109256744385" bottom="0.79000002145767212" header="0.38986110687255859" footer="0.40000000596046448"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"맑은 고딕,Regular"&amp;7 &amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>

--- a/02_엔티티정의서 (2 유형).xlsx
+++ b/02_엔티티정의서 (2 유형).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="25340" windowHeight="11490" tabRatio="961" activeTab="15"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="12350" windowHeight="11460" tabRatio="961" activeTab="7"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="작성표준" sheetId="1" r:id="rId4"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="231">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="229">
   <x:si>
     <x:t>(8) 속성명 : 엔티티를 구성하는 각 속성명을 기재한다.</x:t>
   </x:si>
@@ -128,9 +128,6 @@
     <x:t xml:space="preserve">  - ERD의 해당 엔티티에 속성명이 정의된 경우 동일한 속성명을 기재한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>납입금액</x:t>
-  </x:si>
-  <x:si>
     <x:t>DG02</x:t>
   </x:si>
   <x:si>
@@ -681,9 +678,6 @@
   </x:si>
   <x:si>
     <x:t>상품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납부일</x:t>
   </x:si>
   <x:si>
     <x:t>간질환</x:t>
@@ -2576,7 +2570,7 @@
     </x:row>
     <x:row r="2" spans="1:1" ht="30" customHeight="1">
       <x:c r="A2" s="4" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="13.5" customHeight="1">
@@ -2584,12 +2578,12 @@
     </x:row>
     <x:row r="4" spans="1:1" s="21" customFormat="1" ht="22.5">
       <x:c r="A4" s="22" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A5" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="18.75" customHeight="1">
@@ -2597,47 +2591,47 @@
     </x:row>
     <x:row r="7" spans="1:1" s="21" customFormat="1" ht="22.5">
       <x:c r="A7" s="20" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="31" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>226</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>223</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>218</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A12" s="6" t="s">
-        <x:v>217</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A13" s="31" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A14" s="31" t="s">
-        <x:v>216</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A15" s="32" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="18.75" customHeight="1">
@@ -2647,7 +2641,7 @@
     </x:row>
     <x:row r="17" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A17" s="6" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="18.75" customHeight="1">
@@ -2657,7 +2651,7 @@
     </x:row>
     <x:row r="19" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A19" s="6" t="s">
-        <x:v>221</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:1" ht="18.75" customHeight="1">
@@ -2677,42 +2671,42 @@
     </x:row>
     <x:row r="23" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A23" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A24" s="6" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A25" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A26" s="6" t="s">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A27" s="6" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A28" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A29" s="6" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A30" s="6" t="s">
-        <x:v>228</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:1" ht="18.75" customHeight="1">
@@ -2722,7 +2716,7 @@
     </x:row>
     <x:row r="32" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A32" s="6" t="s">
-        <x:v>225</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:1" ht="18.75" customHeight="1">
@@ -2733,12 +2727,12 @@
     <x:row r="34" ht="18.75" customHeight="1"/>
     <x:row r="35" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A35" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A36" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:1" ht="18.75" customHeight="1">
@@ -2762,7 +2756,7 @@
   <x:dimension ref="A1:G33"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A8" activeCellId="0" sqref="A8:A12"/>
+      <x:selection activeCell="D8" activeCellId="0" sqref="D8:D8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -2778,7 +2772,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -2798,44 +2792,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -2845,7 +2839,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -2856,25 +2850,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -2882,19 +2876,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -2903,19 +2897,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -2924,16 +2918,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
@@ -2943,16 +2937,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
@@ -2962,16 +2956,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
@@ -3208,7 +3202,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -3228,44 +3222,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>220</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -3275,7 +3269,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -3286,25 +3280,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -3312,19 +3306,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -3333,16 +3327,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
@@ -3352,16 +3346,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
@@ -3371,16 +3365,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
@@ -3390,16 +3384,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
@@ -3409,20 +3403,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="11"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -3645,7 +3639,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -3663,39 +3657,39 @@
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
         <x:v>8</x:v>
@@ -3707,7 +3701,7 @@
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -3717,22 +3711,22 @@
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -3740,16 +3734,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F8" s="11"/>
     </x:row>
@@ -3758,16 +3752,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F9" s="11"/>
     </x:row>
@@ -3776,10 +3770,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
@@ -3792,10 +3786,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
@@ -3808,10 +3802,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>10</x:v>
@@ -4030,7 +4024,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -4050,41 +4044,41 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
         <x:v>4</x:v>
@@ -4097,7 +4091,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -4108,25 +4102,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -4134,19 +4128,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -4155,19 +4149,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -4176,20 +4170,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -4197,16 +4191,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
@@ -4216,16 +4210,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
@@ -4235,16 +4229,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
@@ -4471,7 +4465,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -4491,44 +4485,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -4538,7 +4532,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -4549,25 +4543,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -4575,19 +4569,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -4596,16 +4590,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
@@ -4615,16 +4609,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
@@ -4634,16 +4628,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
@@ -4888,7 +4882,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -4908,41 +4902,41 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
         <x:v>12</x:v>
@@ -4955,7 +4949,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -4966,177 +4960,177 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
       <x:c r="A8" s="12"/>
       <x:c r="B8" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="21" customHeight="1">
       <x:c r="A9" s="12"/>
       <x:c r="B9" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34"/>
       <x:c r="G9" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
       <x:c r="A10" s="12"/>
       <x:c r="B10" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
       <x:c r="A11" s="12"/>
       <x:c r="B11" s="9" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
       <x:c r="A12" s="12"/>
       <x:c r="B12" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
       <x:c r="A13" s="12"/>
       <x:c r="B13" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="34"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
       <x:c r="A14" s="12"/>
       <x:c r="B14" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F14" s="34"/>
       <x:c r="G14" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
       <x:c r="A15" s="12"/>
       <x:c r="B15" s="10" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F15" s="34"/>
       <x:c r="G15" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -5335,7 +5329,7 @@
   <x:sheetPr codeName="Sheet16"/>
   <x:dimension ref="A1:G33"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B6" activeCellId="0" sqref="B6:G6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -5352,7 +5346,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -5372,44 +5366,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>229</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>230</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -5419,7 +5413,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -5430,59 +5424,59 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
       <x:c r="A8" s="12"/>
       <x:c r="B8" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="21" customHeight="1">
       <x:c r="A9" s="12"/>
       <x:c r="B9" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
@@ -5490,16 +5484,16 @@
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
       <x:c r="A10" s="12"/>
       <x:c r="B10" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
@@ -5507,16 +5501,16 @@
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
       <x:c r="A11" s="12"/>
       <x:c r="B11" s="9" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
@@ -5759,7 +5753,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -5777,42 +5771,42 @@
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -5821,10 +5815,10 @@
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C6" s="36"/>
       <x:c r="D6" s="36"/>
@@ -5833,22 +5827,22 @@
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -5856,19 +5850,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" ht="21" customHeight="1">
@@ -5876,19 +5870,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" ht="21" customHeight="1">
@@ -5896,19 +5890,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" ht="21" customHeight="1">
@@ -5916,10 +5910,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3</x:v>
@@ -5932,10 +5926,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>3</x:v>
@@ -5948,10 +5942,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>3</x:v>
@@ -5964,10 +5958,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>3</x:v>
@@ -5980,10 +5974,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>3</x:v>
@@ -5996,10 +5990,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>3</x:v>
@@ -6012,10 +6006,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>3</x:v>
@@ -6028,10 +6022,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>3</x:v>
@@ -6044,10 +6038,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D19" s="8">
         <x:v>3</x:v>
@@ -6060,10 +6054,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B20" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D20" s="8">
         <x:v>3</x:v>
@@ -6076,10 +6070,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B21" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D21" s="8">
         <x:v>3</x:v>
@@ -6208,15 +6202,15 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:G29"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C8" activeCellId="0" sqref="C8:C8"/>
+    <x:sheetView topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C21" activeCellId="0" sqref="C21:C21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.88671875" style="1"/>
+    <x:col min="3" max="3" width="10.04296875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="8.88671875" style="1"/>
     <x:col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
@@ -6226,7 +6220,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -6246,41 +6240,41 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
         <x:v>3</x:v>
@@ -6293,10 +6287,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36" t="s">
-        <x:v>222</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C6" s="36"/>
       <x:c r="D6" s="36"/>
@@ -6306,25 +6300,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -6332,22 +6326,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="107.55">
@@ -6355,16 +6349,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34"/>
       <x:c r="G9" s="11" t="s">
@@ -6376,20 +6370,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -6397,20 +6391,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -6418,20 +6412,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -6439,20 +6433,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="34"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -6460,20 +6454,20 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F14" s="34"/>
       <x:c r="G14" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -6481,20 +6475,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F15" s="34"/>
       <x:c r="G15" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
@@ -6502,20 +6496,20 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F16" s="34"/>
       <x:c r="G16" s="11" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -6523,20 +6517,20 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F17" s="34"/>
       <x:c r="G17" s="11" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -6544,20 +6538,20 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F18" s="34"/>
       <x:c r="G18" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -6565,20 +6559,20 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D19" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E19" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F19" s="34"/>
       <x:c r="G19" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -6586,20 +6580,20 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B20" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D20" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E20" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F20" s="34"/>
       <x:c r="G20" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="23.899999999999999">
@@ -6607,16 +6601,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B21" s="10" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D21" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F21" s="34"/>
       <x:c r="G21" s="11" t="s">
@@ -6628,16 +6622,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B22" s="10" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D22" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E22" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F22" s="34"/>
       <x:c r="G22" s="11"/>
@@ -6647,20 +6641,20 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B23" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C23" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D23" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E23" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F23" s="34"/>
       <x:c r="G23" s="11" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7" ht="21" customHeight="1">
@@ -6668,20 +6662,20 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B24" s="10" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C24" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D24" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E24" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F24" s="34"/>
       <x:c r="G24" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7" ht="21" customHeight="1">
@@ -6689,20 +6683,20 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B25" s="10" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C25" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D25" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E25" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F25" s="34"/>
       <x:c r="G25" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7" ht="21" customHeight="1">
@@ -6710,20 +6704,20 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B26" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C26" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D26" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E26" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F26" s="34"/>
       <x:c r="G26" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="21" customHeight="1">
@@ -6731,20 +6725,20 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B27" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C27" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D27" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F27" s="34"/>
       <x:c r="G27" s="11" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="21" customHeight="1">
@@ -6752,20 +6746,20 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B28" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C28" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D28" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E28" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F28" s="34"/>
       <x:c r="G28" s="11" t="s">
-        <x:v>214</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="21" customHeight="1">
@@ -6803,7 +6797,7 @@
   <x:dimension ref="A1:G36"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
+      <x:selection activeCell="B26" activeCellId="0" sqref="B26:B26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -6820,7 +6814,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -6840,44 +6834,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>227</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -6887,7 +6881,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -6898,25 +6892,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -6924,22 +6918,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="21" customHeight="1">
@@ -6947,22 +6941,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="21" customHeight="1">
@@ -6970,20 +6964,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="21" customHeight="1">
@@ -6991,20 +6985,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="21" customHeight="1">
@@ -7012,16 +7006,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
@@ -7031,16 +7025,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
@@ -7050,20 +7044,20 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F14" s="34"/>
       <x:c r="G14" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="21" customHeight="1">
@@ -7071,20 +7065,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F15" s="34"/>
       <x:c r="G15" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" ht="21" customHeight="1">
@@ -7092,20 +7086,20 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F16" s="34"/>
       <x:c r="G16" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" ht="21" customHeight="1">
@@ -7113,20 +7107,20 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F17" s="34"/>
       <x:c r="G17" s="11" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="21" customHeight="1">
@@ -7134,20 +7128,20 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F18" s="34"/>
       <x:c r="G18" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="21" customHeight="1">
@@ -7155,20 +7149,20 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D19" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E19" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F19" s="34"/>
       <x:c r="G19" s="11" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="21" customHeight="1">
@@ -7350,7 +7344,7 @@
   <x:dimension ref="A1:G34"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D18" activeCellId="0" sqref="D18:D18"/>
+      <x:selection activeCell="E22" activeCellId="0" sqref="E22:E22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -7367,7 +7361,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -7387,44 +7381,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -7434,7 +7428,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -7445,25 +7439,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -7471,19 +7465,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -7492,16 +7486,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34"/>
       <x:c r="G9" s="11"/>
@@ -7511,16 +7505,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="11"/>
@@ -7530,16 +7524,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
@@ -7549,16 +7543,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
@@ -7568,20 +7562,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="34"/>
       <x:c r="G13" s="11" t="s">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" ht="21" customHeight="1">
@@ -7589,16 +7583,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
@@ -7608,16 +7602,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
@@ -7627,16 +7621,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
@@ -7646,16 +7640,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
@@ -7665,16 +7659,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
@@ -7849,7 +7843,7 @@
   <x:dimension ref="A1:F33"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C12" activeCellId="0" sqref="C12:E12"/>
+      <x:selection activeCell="B14" activeCellId="0" sqref="B14:B14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -7863,7 +7857,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -7881,42 +7875,42 @@
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -7925,7 +7919,7 @@
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -7935,22 +7929,22 @@
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -7958,19 +7952,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="11" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" ht="21" customHeight="1">
@@ -7978,19 +7972,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="11" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" ht="21" customHeight="1">
@@ -7998,16 +7992,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
     </x:row>
@@ -8016,16 +8010,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="11"/>
     </x:row>
@@ -8034,16 +8028,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="11"/>
     </x:row>
@@ -8052,53 +8046,33 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:6" ht="21" customHeight="1">
-      <x:c r="A14" s="12">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B14" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C14" s="8" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="D14" s="8">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E14" s="8" t="s">
-        <x:v>158</x:v>
-      </x:c>
+      <x:c r="A14" s="12"/>
+      <x:c r="B14" s="10"/>
+      <x:c r="C14" s="8"/>
+      <x:c r="D14" s="8"/>
+      <x:c r="E14" s="8"/>
       <x:c r="F14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:6" ht="21" customHeight="1">
-      <x:c r="A15" s="12">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B15" s="10" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="C15" s="8" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D15" s="8">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E15" s="8" t="s">
-        <x:v>158</x:v>
-      </x:c>
+      <x:c r="A15" s="12"/>
+      <x:c r="B15" s="10"/>
+      <x:c r="C15" s="8"/>
+      <x:c r="D15" s="8"/>
+      <x:c r="E15" s="8"/>
       <x:c r="F15" s="11"/>
     </x:row>
     <x:row r="16" spans="1:6" ht="21" customHeight="1">
@@ -8271,7 +8245,7 @@
   <x:dimension ref="A1:F33"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B16" activeCellId="0" sqref="B16:B16"/>
+      <x:selection activeCell="D14" activeCellId="0" sqref="D14:D14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -8285,7 +8259,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -8303,39 +8277,39 @@
     </x:row>
     <x:row r="3" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:6" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
         <x:v>5</x:v>
@@ -8347,7 +8321,7 @@
     </x:row>
     <x:row r="6" spans="1:6" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -8357,22 +8331,22 @@
     </x:row>
     <x:row r="7" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="21" customHeight="1">
@@ -8380,16 +8354,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F8" s="11"/>
     </x:row>
@@ -8398,16 +8372,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F9" s="11"/>
     </x:row>
@@ -8416,16 +8390,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
     </x:row>
@@ -8434,16 +8408,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F11" s="11"/>
     </x:row>
@@ -8452,16 +8426,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D12" s="8">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F12" s="11"/>
     </x:row>
@@ -8470,16 +8444,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="8">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F13" s="11"/>
     </x:row>
@@ -8668,8 +8642,8 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="A1:G33"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F20" activeCellId="0" sqref="F20:F20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -8685,7 +8659,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -8705,44 +8679,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>219</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -8752,7 +8726,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -8763,25 +8737,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -8789,19 +8763,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -8810,19 +8784,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -8831,19 +8805,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G10" s="11"/>
     </x:row>
@@ -8852,16 +8826,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="11"/>
@@ -8871,16 +8845,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11"/>
@@ -8890,16 +8864,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
@@ -8909,16 +8883,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
@@ -8928,16 +8902,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>
@@ -8947,16 +8921,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F16" s="34"/>
       <x:c r="G16" s="11"/>
@@ -8966,16 +8940,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D17" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F17" s="34"/>
       <x:c r="G17" s="11"/>
@@ -8985,16 +8959,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F18" s="34"/>
       <x:c r="G18" s="11"/>
@@ -9177,7 +9151,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="27" customHeight="1">
       <x:c r="A1" s="42" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="43"/>
       <x:c r="C1" s="43"/>
@@ -9197,44 +9171,44 @@
     </x:row>
     <x:row r="3" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A3" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B3" s="49" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C3" s="50"/>
       <x:c r="D3" s="27" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E3" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="40"/>
       <x:c r="G3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A4" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="46" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C4" s="51"/>
       <x:c r="D4" s="28" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E4" s="46" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="47"/>
       <x:c r="G4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:7" s="15" customFormat="1" ht="36" customHeight="1">
       <x:c r="A5" s="25" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="36"/>
@@ -9244,7 +9218,7 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="36" customHeight="1">
       <x:c r="A6" s="24" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="36"/>
       <x:c r="C6" s="36"/>
@@ -9255,25 +9229,25 @@
     </x:row>
     <x:row r="7" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <x:c r="A7" s="26" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B7" s="29" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C7" s="29" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D7" s="29" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B7" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C7" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D7" s="29" t="s">
-        <x:v>175</x:v>
-      </x:c>
       <x:c r="E7" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="30" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="21" customHeight="1">
@@ -9281,19 +9255,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F8" s="34" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G8" s="11"/>
     </x:row>
@@ -9302,19 +9276,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="34" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G9" s="11"/>
     </x:row>
@@ -9323,19 +9297,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G10" s="11"/>
     </x:row>
@@ -9344,19 +9318,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F11" s="34" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G11" s="11"/>
     </x:row>
@@ -9365,20 +9339,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F12" s="34"/>
       <x:c r="G12" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="21" customHeight="1">
@@ -9386,16 +9360,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="8">
         <x:v>255</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F13" s="34"/>
       <x:c r="G13" s="11"/>
@@ -9405,16 +9379,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D14" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F14" s="34"/>
       <x:c r="G14" s="11"/>
@@ -9424,16 +9398,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E15" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F15" s="34"/>
       <x:c r="G15" s="11"/>

--- a/02_엔티티정의서 (2 유형).xlsx
+++ b/02_엔티티정의서 (2 유형).xlsx
@@ -8643,7 +8643,7 @@
   <x:dimension ref="A1:G33"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
+      <x:selection activeCell="D7" activeCellId="0" sqref="D7:D7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
